--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H2">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I2">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J2">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>474.6364639689014</v>
+        <v>200.7968213183067</v>
       </c>
       <c r="R2">
-        <v>4271.728175720112</v>
+        <v>1807.17139186476</v>
       </c>
       <c r="S2">
-        <v>0.1987064957302093</v>
+        <v>0.1630944546624281</v>
       </c>
       <c r="T2">
-        <v>0.1987064957302093</v>
+        <v>0.1630944546624281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H3">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I3">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J3">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>145.8064531139777</v>
+        <v>69.36501927704333</v>
       </c>
       <c r="R3">
-        <v>1312.258078025799</v>
+        <v>624.2851734933901</v>
       </c>
       <c r="S3">
-        <v>0.06104185319193655</v>
+        <v>0.05634078227615241</v>
       </c>
       <c r="T3">
-        <v>0.06104185319193656</v>
+        <v>0.05634078227615243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H4">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I4">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J4">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>83.842825863714</v>
+        <v>22.73184954896667</v>
       </c>
       <c r="R4">
-        <v>754.5854327734261</v>
+        <v>204.5866459407</v>
       </c>
       <c r="S4">
-        <v>0.03510078846489205</v>
+        <v>0.01846363195052766</v>
       </c>
       <c r="T4">
-        <v>0.03510078846489206</v>
+        <v>0.01846363195052766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H5">
         <v>246.782684</v>
       </c>
       <c r="I5">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J5">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>347.1624730071396</v>
+        <v>308.7199826679342</v>
       </c>
       <c r="R5">
-        <v>3124.462257064256</v>
+        <v>2778.479844011408</v>
       </c>
       <c r="S5">
-        <v>0.1453395255043067</v>
+        <v>0.2507535571830813</v>
       </c>
       <c r="T5">
-        <v>0.1453395255043067</v>
+        <v>0.2507535571830813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H6">
         <v>246.782684</v>
       </c>
       <c r="I6">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J6">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>106.6469449485125</v>
+        <v>106.6469449485124</v>
       </c>
       <c r="R6">
-        <v>959.8225045366121</v>
+        <v>959.822504536612</v>
       </c>
       <c r="S6">
-        <v>0.04464773004132261</v>
+        <v>0.08662251331269383</v>
       </c>
       <c r="T6">
-        <v>0.04464773004132262</v>
+        <v>0.08662251331269386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H7">
         <v>246.782684</v>
       </c>
       <c r="I7">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J7">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>61.32500340863201</v>
+        <v>34.94963791106222</v>
       </c>
       <c r="R7">
-        <v>551.925030677688</v>
+        <v>314.54674119956</v>
       </c>
       <c r="S7">
-        <v>0.02567370493635487</v>
+        <v>0.02838736240111156</v>
       </c>
       <c r="T7">
-        <v>0.02567370493635488</v>
+        <v>0.02838736240111157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H8">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I8">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J8">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N8">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q8">
-        <v>787.961458374423</v>
+        <v>334.5259703907324</v>
       </c>
       <c r="R8">
-        <v>7091.653125369808</v>
+        <v>3010.733733516592</v>
       </c>
       <c r="S8">
-        <v>0.3298799650890404</v>
+        <v>0.2717141155576744</v>
       </c>
       <c r="T8">
-        <v>0.3298799650890404</v>
+        <v>0.2717141155576744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H9">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I9">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J9">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.889343</v>
       </c>
       <c r="O9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q9">
-        <v>242.0586578523379</v>
+        <v>115.5615922228209</v>
       </c>
       <c r="R9">
-        <v>2178.527920671041</v>
+        <v>1040.054330005388</v>
       </c>
       <c r="S9">
-        <v>0.1013378265563415</v>
+        <v>0.0938633128739899</v>
       </c>
       <c r="T9">
-        <v>0.1013378265563415</v>
+        <v>0.09386331287398993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H10">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I10">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J10">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N10">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q10">
-        <v>139.190560264526</v>
+        <v>37.87108769560445</v>
       </c>
       <c r="R10">
-        <v>1252.715042380734</v>
+        <v>340.8397892604401</v>
       </c>
       <c r="S10">
-        <v>0.0582721104855961</v>
+        <v>0.03076026978234082</v>
       </c>
       <c r="T10">
-        <v>0.05827211048559611</v>
+        <v>0.03076026978234083</v>
       </c>
     </row>
   </sheetData>
